--- a/output/Allocation Rule/summary_tables/allocation_rule_summary_tables_national.xlsx
+++ b/output/Allocation Rule/summary_tables/allocation_rule_summary_tables_national.xlsx
@@ -599,22 +599,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" t="n">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E9" t="n">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F9" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G9" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
@@ -622,22 +622,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.37</v>
+        <v>0.31</v>
       </c>
       <c r="C10" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
       <c r="D10" t="n">
-        <v>0.47</v>
+        <v>0.35</v>
       </c>
       <c r="E10" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
       <c r="F10" t="n">
-        <v>0.41</v>
+        <v>0.35</v>
       </c>
       <c r="G10" t="n">
-        <v>0.39</v>
+        <v>0.34</v>
       </c>
     </row>
   </sheetData>
@@ -843,22 +843,22 @@
         <v>14</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>8.3</v>
       </c>
       <c r="C9" t="n">
-        <v>8.6</v>
+        <v>7.2</v>
       </c>
       <c r="D9" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E9" t="n">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>18</v>
+        <v>9.6</v>
       </c>
       <c r="G9" t="n">
-        <v>14</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="10">
@@ -866,22 +866,22 @@
         <v>15</v>
       </c>
       <c r="B10" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="C10" t="n">
-        <v>0.14</v>
+        <v>0.094</v>
       </c>
       <c r="D10" t="n">
-        <v>0.41</v>
+        <v>0.11</v>
       </c>
       <c r="E10" t="n">
-        <v>0.23</v>
+        <v>0.098</v>
       </c>
       <c r="F10" t="n">
-        <v>0.17</v>
+        <v>0.093</v>
       </c>
       <c r="G10" t="n">
-        <v>0.13</v>
+        <v>0.089</v>
       </c>
     </row>
   </sheetData>
